--- a/raw_data/2024_q1_1.xlsx
+++ b/raw_data/2024_q1_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinzen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ALEXANDRU.PASCAN@BNC.CA/Documents/playground/team_health/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D90CE8BE-A05A-43A7-918D-EDE6A0B49E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F15CF3-672F-5A43-A718-8951C5B9AC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form1" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,12 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -164,12 +170,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
@@ -190,16 +190,16 @@
   <autoFilter ref="A1:K10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure de début" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure de fin" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Adresse de messagerie" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nom" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Langue" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comment évalueriez-vous la qualité de votre travail pendant ce sprint ?" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Comment évalueriez-vous la charge de travail de ce sprint ?" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comment évalueriez-vous votre niveau d'énergie à la fin de ce sprint ?" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Comment évalueriez-vous le travail réalisé par vos collègues pendant ce sprint ?" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Quelle note attribueriez-vous à ce sprint ?" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure de début" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure de fin" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Adresse de messagerie" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nom" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Langue" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comment évalueriez-vous la qualité de votre travail pendant ce sprint ?" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Comment évalueriez-vous la charge de travail de ce sprint ?" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comment évalueriez-vous votre niveau d'énergie à la fin de ce sprint ?" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Comment évalueriez-vous le travail réalisé par vos collègues pendant ce sprint ?" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Quelle note attribueriez-vous à ce sprint ?" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -505,15 +505,15 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B2" sqref="B2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="11" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -580,7 +580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -612,7 +612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -644,7 +644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -676,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -708,7 +708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -772,7 +772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -853,19 +853,19 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -877,15 +877,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008C56E2A98F38F246950D8BC2B39D705B" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="30a89ade9488dcd14d6bcb3744137a64">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="51f34441-7bbf-42d9-a36f-aaeca5334d1d" xmlns:ns3="0ea4d827-cf22-4e11-8604-2f1dd109f067" xmlns:ns4="298b2949-ea6a-4af8-bd4f-8cf4d94686c4" xmlns:ns5="646edc4a-20a2-4b2a-ae2d-e944b8755f4d" xmlns:ns6="cc968f82-7929-4866-a158-10b75da4fa03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4babdb5c9f9455bfae78687093235dd7" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1218,6 +1209,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1251,13 +1251,47 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{202F7B30-5A65-41F0-9797-F79E141F330E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73A03730-D616-41F9-B00E-9A7B35F6E29E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="51f34441-7bbf-42d9-a36f-aaeca5334d1d"/>
+    <ds:schemaRef ds:uri="0ea4d827-cf22-4e11-8604-2f1dd109f067"/>
+    <ds:schemaRef ds:uri="298b2949-ea6a-4af8-bd4f-8cf4d94686c4"/>
+    <ds:schemaRef ds:uri="646edc4a-20a2-4b2a-ae2d-e944b8755f4d"/>
+    <ds:schemaRef ds:uri="cc968f82-7929-4866-a158-10b75da4fa03"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73A03730-D616-41F9-B00E-9A7B35F6E29E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{202F7B30-5A65-41F0-9797-F79E141F330E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7395213A-4C2D-4D46-A3AC-01B1D91DAAE9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7395213A-4C2D-4D46-A3AC-01B1D91DAAE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cc968f82-7929-4866-a158-10b75da4fa03"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="298b2949-ea6a-4af8-bd4f-8cf4d94686c4"/>
+    <ds:schemaRef ds:uri="0ea4d827-cf22-4e11-8604-2f1dd109f067"/>
+    <ds:schemaRef ds:uri="51f34441-7bbf-42d9-a36f-aaeca5334d1d"/>
+    <ds:schemaRef ds:uri="646edc4a-20a2-4b2a-ae2d-e944b8755f4d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>